--- a/tmp_output/docked_raw/docked_raw_April.xlsx
+++ b/tmp_output/docked_raw/docked_raw_April.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>員編</t>
   </si>
@@ -48,54 +48,12 @@
   </si>
   <si>
     <t>HOUR</t>
-  </si>
-  <si>
-    <t>INTWK0002203250359</t>
-  </si>
-  <si>
-    <t>INTWK0002204010346</t>
-  </si>
-  <si>
-    <t>INTWK0002204010345</t>
-  </si>
-  <si>
-    <t>INTWK0002204010300</t>
-  </si>
-  <si>
-    <t>INTWK0002204010342</t>
-  </si>
-  <si>
-    <t>INTWK0002204010299</t>
-  </si>
-  <si>
-    <t>INTWK0002203250261</t>
-  </si>
-  <si>
-    <t>INTWK0002204010344</t>
-  </si>
-  <si>
-    <t>INTWK0002204010341</t>
-  </si>
-  <si>
-    <t>INTWK0002204010343</t>
-  </si>
-  <si>
-    <t>收下</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2022-04-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -148,12 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,266 +446,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>126159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>4710564512166</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2">
-        <v>44654.30046296296</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>126159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>4714290202919</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44654.30056712963</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>126159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>4714290203138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2">
-        <v>44654.30060185185</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>126159</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>4714290202339</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44654.30068287037</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>126159</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>4714290203145</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2">
-        <v>44654.30082175926</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>126159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>4714290203022</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2">
-        <v>44654.30096064815</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>126159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>6951613981146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2">
-        <v>44654.30107638889</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>126159</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>4714290501296</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44654.3011574074</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>126159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>4714290203138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2">
-        <v>44654.30130787037</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>126159</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>4714290201356</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>44654.30141203704</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
